--- a/Doc/Schedules/Gantt/Master_Gantt.xlsx
+++ b/Doc/Schedules/Gantt/Master_Gantt.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pizza\Documents\Github\Sound_Sentinel\Doc\Schedules\Gantt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pizza\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0B8736F1-B39B-4448-A1B2-54A0522F14FF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EEA0CC6D-7EF5-4E73-A526-3BB08DE48932}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{DF00EC72-B5C0-414C-99A8-E9AD9B6E1698}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Managament Summary" sheetId="3" r:id="rId1"/>
+    <sheet name="Gantt" sheetId="1" r:id="rId2"/>
+    <sheet name="Meetings" sheetId="2" r:id="rId3"/>
+    <sheet name="RFP" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
   <si>
     <t xml:space="preserve">Amanda </t>
   </si>
@@ -139,16 +142,143 @@
   </si>
   <si>
     <t>group totals ($)</t>
+  </si>
+  <si>
+    <t>Meetings</t>
+  </si>
+  <si>
+    <t>Amanda</t>
+  </si>
+  <si>
+    <t>Tyrel</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>ü</t>
+  </si>
+  <si>
+    <t>Sept. 22</t>
+  </si>
+  <si>
+    <t>Initial Set-up</t>
+  </si>
+  <si>
+    <t>Sept. 21</t>
+  </si>
+  <si>
+    <t>Sept. 23</t>
+  </si>
+  <si>
+    <t>Initial Release</t>
+  </si>
+  <si>
+    <t>Sept. 29</t>
+  </si>
+  <si>
+    <t>Test Code Integrateion</t>
+  </si>
+  <si>
+    <t>Oct. 20</t>
+  </si>
+  <si>
+    <t>Aug. 30</t>
+  </si>
+  <si>
+    <t>First Meeting</t>
+  </si>
+  <si>
+    <t>Sept. 1</t>
+  </si>
+  <si>
+    <t>Ananlysis Planning</t>
+  </si>
+  <si>
+    <t>Ananlysis Integration</t>
+  </si>
+  <si>
+    <t>Sept. 13</t>
+  </si>
+  <si>
+    <t>Ananlysis presentation practice</t>
+  </si>
+  <si>
+    <t>Sept. 15</t>
+  </si>
+  <si>
+    <t>Budgeted</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Deficit</t>
+  </si>
+  <si>
+    <t>Oct. 4</t>
+  </si>
+  <si>
+    <t>Team Lead 2 demo practice</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>scheduled(hrs)</t>
+  </si>
+  <si>
+    <t>spent(hrs)</t>
+  </si>
+  <si>
+    <t>red is dependent on others</t>
+  </si>
+  <si>
+    <t>Assemble SA Powerpoint</t>
+  </si>
+  <si>
+    <t>Individual schedule</t>
+  </si>
+  <si>
+    <t>Chapter 1 and 2, glossary Terms</t>
+  </si>
+  <si>
+    <t>Chapter 3 and 4, glossary Terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standardize formating </t>
+  </si>
+  <si>
+    <t>Chapter 5 and 6, glossary Terms</t>
+  </si>
+  <si>
+    <t>Merge schedules on google docs</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +292,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,8 +343,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -209,11 +364,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -224,6 +496,64 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,11 +867,300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA597414-895E-439F-B877-3B8E93F3EAA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" customWidth="1"/>
+    <col min="11" max="11" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C2" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+      <c r="K2" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="39"/>
+      <c r="M2" s="40"/>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="5"/>
+      <c r="G3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="28">
+        <f>(G4+K4)</f>
+        <v>6700</v>
+      </c>
+      <c r="D4" s="29">
+        <f>(H4+L4)</f>
+        <v>6650</v>
+      </c>
+      <c r="E4" s="30">
+        <f>(C4-D4)</f>
+        <v>50</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="22">
+        <f>(Gantt!$B10)*100</f>
+        <v>5700</v>
+      </c>
+      <c r="H4" s="23">
+        <f>(Gantt!$C10)*100</f>
+        <v>3600</v>
+      </c>
+      <c r="I4" s="24">
+        <f>(G4-H4)</f>
+        <v>2100</v>
+      </c>
+      <c r="K4" s="28">
+        <v>1000</v>
+      </c>
+      <c r="L4" s="29">
+        <f>Meetings!B4*100</f>
+        <v>3050</v>
+      </c>
+      <c r="M4" s="30">
+        <f>(K4-L4)</f>
+        <v>-2050</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="22">
+        <f t="shared" ref="C5:C7" si="0">(G5+K5)</f>
+        <v>4400</v>
+      </c>
+      <c r="D5" s="23">
+        <f t="shared" ref="D5:D7" si="1">(H5+L5)</f>
+        <v>8050</v>
+      </c>
+      <c r="E5" s="24">
+        <f t="shared" ref="E5:E7" si="2">(C5-D5)</f>
+        <v>-3650</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="22">
+        <f>(Gantt!$B20)*100</f>
+        <v>3400</v>
+      </c>
+      <c r="H5" s="23">
+        <f>(Gantt!$C20)*100</f>
+        <v>5400</v>
+      </c>
+      <c r="I5" s="24">
+        <f t="shared" ref="I5:I7" si="3">(G5-H5)</f>
+        <v>-2000</v>
+      </c>
+      <c r="K5" s="22">
+        <v>1000</v>
+      </c>
+      <c r="L5" s="23">
+        <f>Meetings!B5*100</f>
+        <v>2650</v>
+      </c>
+      <c r="M5" s="24">
+        <f t="shared" ref="M5:M7" si="4">(K5-L5)</f>
+        <v>-1650</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="22">
+        <f t="shared" si="0"/>
+        <v>2300</v>
+      </c>
+      <c r="D6" s="23">
+        <f t="shared" si="1"/>
+        <v>8250</v>
+      </c>
+      <c r="E6" s="24">
+        <f t="shared" si="2"/>
+        <v>-5950</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="22">
+        <f>(Gantt!$B28)*100</f>
+        <v>1300</v>
+      </c>
+      <c r="H6" s="23">
+        <f>(Gantt!$C28)*100</f>
+        <v>5600</v>
+      </c>
+      <c r="I6" s="24">
+        <f t="shared" si="3"/>
+        <v>-4300</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1000</v>
+      </c>
+      <c r="L6" s="23">
+        <f>Meetings!B6*100</f>
+        <v>2650</v>
+      </c>
+      <c r="M6" s="24">
+        <f t="shared" si="4"/>
+        <v>-1650</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="35">
+        <f t="shared" si="0"/>
+        <v>5200</v>
+      </c>
+      <c r="D7" s="36">
+        <f t="shared" si="1"/>
+        <v>6350</v>
+      </c>
+      <c r="E7" s="37">
+        <f t="shared" si="2"/>
+        <v>-1150</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="22">
+        <f>(Gantt!$B36)*100</f>
+        <v>4200</v>
+      </c>
+      <c r="H7" s="23">
+        <f>(Gantt!$C36)*100</f>
+        <v>3700</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="K7" s="22">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="23">
+        <f>Meetings!B7*100</f>
+        <v>2650</v>
+      </c>
+      <c r="M7" s="24">
+        <f t="shared" si="4"/>
+        <v>-1650</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="32">
+        <f>SUM(C4:C7)</f>
+        <v>18600</v>
+      </c>
+      <c r="D8" s="33">
+        <f>SUM(D4:D7)</f>
+        <v>29300</v>
+      </c>
+      <c r="E8" s="34">
+        <f>SUM(E4:E7)</f>
+        <v>-10700</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="25">
+        <f>SUM(G4:G7)</f>
+        <v>14600</v>
+      </c>
+      <c r="H8" s="26">
+        <f>SUM(H4:H7)</f>
+        <v>18300</v>
+      </c>
+      <c r="I8" s="27">
+        <f>SUM(I4:I7)</f>
+        <v>-3700</v>
+      </c>
+      <c r="K8" s="25">
+        <f>SUM(K4:K7)</f>
+        <v>4000</v>
+      </c>
+      <c r="L8" s="26">
+        <f>SUM(L4:L7)</f>
+        <v>11000</v>
+      </c>
+      <c r="M8" s="27">
+        <f>SUM(M4:M7)</f>
+        <v>-7000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="G2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,14 +1551,14 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="6"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -948,8 +1567,11 @@
       <c r="B25">
         <v>2</v>
       </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="6"/>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -974,13 +1596,14 @@
         <v>1</v>
       </c>
       <c r="C27">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -992,7 +1615,7 @@
       </c>
       <c r="C28">
         <f>SUM(C22:C27)</f>
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
@@ -1102,7 +1725,7 @@
       </c>
       <c r="C37">
         <f>SUM(C10,C20,C28,C36)</f>
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -1115,7 +1738,566 @@
       </c>
       <c r="C38" s="9">
         <f>C37*100</f>
-        <v>17100</v>
+        <v>18300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1.5</v>
+      </c>
+      <c r="D3" s="11">
+        <v>4</v>
+      </c>
+      <c r="E3" s="11">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11">
+        <v>2</v>
+      </c>
+      <c r="H3" s="11">
+        <v>2</v>
+      </c>
+      <c r="I3" s="11">
+        <v>2</v>
+      </c>
+      <c r="J3" s="11">
+        <v>6</v>
+      </c>
+      <c r="K3" s="11">
+        <v>1</v>
+      </c>
+      <c r="L3" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="11">
+        <f>SUMIF(C4:L4,A$10,C$3:Z$3)</f>
+        <v>30.5</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="11">
+        <f>SUMIF(C5:L5,A$10,C$3:Z$3)</f>
+        <v>26.5</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="11">
+        <f>SUMIF(C6:L6,A$10,C$3:Z$3)</f>
+        <v>26.5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="11">
+        <f>SUMIF(C7:L7,A$10,C$3:Z$3)</f>
+        <v>26.5</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="13">
+        <f>SUM(B4:B7)</f>
+        <v>110</v>
+      </c>
+      <c r="C8" s="13">
+        <f t="shared" ref="C8:L8" si="0">COUNTIF(C4:C7,"*ü*") * C3</f>
+        <v>6</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H8" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="L8" s="13">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE91B99-01AD-4908-99B4-9564CB7BDBEE}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="5" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="43"/>
+      <c r="B1" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="48">
+        <v>2</v>
+      </c>
+      <c r="D2" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="48">
+        <v>4</v>
+      </c>
+      <c r="D3" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+      <c r="B4" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="47">
+        <f>SUM(C2:C3)</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="51">
+        <f>SUM(D2:D3)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="48">
+        <v>2</v>
+      </c>
+      <c r="D5" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+      <c r="B6" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="48">
+        <v>4</v>
+      </c>
+      <c r="D6" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="50"/>
+      <c r="B7" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="47">
+        <f>SUM(C5:C6)</f>
+        <v>6</v>
+      </c>
+      <c r="D7" s="51">
+        <f>SUM(D5:D6)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="48">
+        <v>1</v>
+      </c>
+      <c r="D8" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="50"/>
+      <c r="B9" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="48">
+        <v>2</v>
+      </c>
+      <c r="D9" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="50"/>
+      <c r="B10" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="48">
+        <v>1</v>
+      </c>
+      <c r="D10" s="49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="50"/>
+      <c r="B11" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="48">
+        <v>2</v>
+      </c>
+      <c r="D11" s="49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
+      <c r="B12" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="47">
+        <f>SUM(C8:C11)</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="51">
+        <f>SUM(D8:D11)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="48">
+        <v>2</v>
+      </c>
+      <c r="D13" s="49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="48">
+        <v>4</v>
+      </c>
+      <c r="D14" s="49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
+      <c r="B15" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="47">
+        <f>SUM(C13:C14)</f>
+        <v>6</v>
+      </c>
+      <c r="D15" s="51">
+        <f>SUM(D13:D14)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="54"/>
+      <c r="B16" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="56">
+        <f>SUM(C4,C7,C12,C15)</f>
+        <v>24</v>
+      </c>
+      <c r="D16" s="57">
+        <f>SUM(D4,D7,D12,D15)</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="42" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/Schedules/Gantt/Master_Gantt.xlsx
+++ b/Doc/Schedules/Gantt/Master_Gantt.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pizza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\CS383\GitHub\Sound_Sentinel\Doc\Schedules\Gantt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EEA0CC6D-7EF5-4E73-A526-3BB08DE48932}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Managament Summary" sheetId="3" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Meetings" sheetId="2" r:id="rId3"/>
     <sheet name="RFP" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="81">
   <si>
     <t xml:space="preserve">Amanda </t>
   </si>
@@ -268,12 +267,15 @@
   </si>
   <si>
     <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Demos and art</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]&quot;$&quot;#,##0.00"/>
@@ -528,15 +530,6 @@
     <xf numFmtId="8" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -554,6 +547,15 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,7 +869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -891,22 +893,22 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
-      <c r="K2" s="38" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="57"/>
+      <c r="K2" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="39"/>
-      <c r="M2" s="40"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="57"/>
     </row>
     <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="15" t="s">
@@ -1071,24 +1073,24 @@
       </c>
       <c r="D7" s="36">
         <f t="shared" si="1"/>
-        <v>6350</v>
+        <v>9350</v>
       </c>
       <c r="E7" s="37">
         <f t="shared" si="2"/>
-        <v>-1150</v>
+        <v>-4150</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="22">
-        <f>(Gantt!$B36)*100</f>
+        <f>(Gantt!$B37)*100</f>
         <v>4200</v>
       </c>
       <c r="H7" s="23">
-        <f>(Gantt!$C36)*100</f>
-        <v>3700</v>
+        <f>(Gantt!$C37)*100</f>
+        <v>6700</v>
       </c>
       <c r="I7" s="24">
         <f t="shared" si="3"/>
-        <v>500</v>
+        <v>-2500</v>
       </c>
       <c r="K7" s="22">
         <v>1000</v>
@@ -1112,11 +1114,11 @@
       </c>
       <c r="D8" s="33">
         <f>SUM(D4:D7)</f>
-        <v>29300</v>
+        <v>32300</v>
       </c>
       <c r="E8" s="34">
         <f>SUM(E4:E7)</f>
-        <v>-10700</v>
+        <v>-13700</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="25">
@@ -1125,11 +1127,11 @@
       </c>
       <c r="H8" s="26">
         <f>SUM(H4:H7)</f>
-        <v>18300</v>
+        <v>21300</v>
       </c>
       <c r="I8" s="27">
         <f>SUM(I4:I7)</f>
-        <v>-3700</v>
+        <v>-6700</v>
       </c>
       <c r="K8" s="25">
         <f>SUM(K4:K7)</f>
@@ -1156,11 +1158,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AD38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36:Z36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,7 +1603,7 @@
       <c r="U27" s="7"/>
       <c r="V27" s="7"/>
       <c r="W27" s="7"/>
-      <c r="X27" s="41"/>
+      <c r="X27" s="38"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
     </row>
@@ -1666,7 +1668,7 @@
       <c r="M32" s="7"/>
       <c r="N32" s="6"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1674,71 +1676,94 @@
         <v>3</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="O33" s="7"/>
       <c r="P33" s="7"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
       <c r="B34">
         <v>6</v>
       </c>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>20</v>
+      </c>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>22</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>6</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>4</v>
       </c>
-      <c r="S35" s="7"/>
-      <c r="T35" s="4"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="4"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>28</v>
       </c>
-      <c r="B36">
-        <f>SUM(B30:B35)</f>
+      <c r="B37">
+        <f>SUM(B30:B36)</f>
         <v>42</v>
       </c>
-      <c r="C36">
-        <f>SUM(C30:C35)</f>
+      <c r="C37">
+        <f>SUM(C30:C36)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <f>SUM(B28,B37,B20,B10)</f>
+        <v>146</v>
+      </c>
+      <c r="C38">
+        <f>SUM(C10,C20,C28,C37)</f>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <f>SUM(B28,B36,B20,B10)</f>
-        <v>146</v>
-      </c>
-      <c r="C37">
-        <f>SUM(C10,C20,C28,C36)</f>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="9">
-        <f>B37*100</f>
+      <c r="B39" s="9">
+        <f>B38*100</f>
         <v>14600</v>
       </c>
-      <c r="C38" s="9">
-        <f>C37*100</f>
-        <v>18300</v>
+      <c r="C39" s="9">
+        <f>C38*100</f>
+        <v>21300</v>
       </c>
     </row>
   </sheetData>
@@ -1747,7 +1772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2070,10 +2095,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEE91B99-01AD-4908-99B4-9564CB7BDBEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -2086,217 +2111,217 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="43"/>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="42" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="48">
+      <c r="C2" s="45">
         <v>2</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="47" t="s">
+      <c r="A3" s="47"/>
+      <c r="B3" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="45">
         <v>4</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="47" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C4" s="47">
+      <c r="C4" s="44">
         <f>SUM(C2:C3)</f>
         <v>6</v>
       </c>
-      <c r="D4" s="51">
+      <c r="D4" s="48">
         <f>SUM(D2:D3)</f>
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="45">
         <v>2</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="46">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="47" t="s">
+      <c r="A6" s="47"/>
+      <c r="B6" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="45">
         <v>4</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="47" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="44">
         <f>SUM(C5:C6)</f>
         <v>6</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="48">
         <f>SUM(D5:D6)</f>
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="45">
         <v>1</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="52" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="45">
         <v>2</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="52" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="45">
         <v>1</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="46">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="45">
         <v>2</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="46">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="47">
+      <c r="C12" s="44">
         <f>SUM(C8:C11)</f>
         <v>6</v>
       </c>
-      <c r="D12" s="51">
+      <c r="D12" s="48">
         <f>SUM(D8:D11)</f>
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="45">
         <v>2</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="46">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="47" t="s">
+      <c r="A14" s="47"/>
+      <c r="B14" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="45">
         <v>4</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="46">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="53" t="s">
+      <c r="A15" s="47"/>
+      <c r="B15" s="50" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="47">
+      <c r="C15" s="44">
         <f>SUM(C13:C14)</f>
         <v>6</v>
       </c>
-      <c r="D15" s="51">
+      <c r="D15" s="48">
         <f>SUM(D13:D14)</f>
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="55" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="53">
         <f>SUM(C4,C7,C12,C15)</f>
         <v>24</v>
       </c>
-      <c r="D16" s="57">
+      <c r="D16" s="54">
         <f>SUM(D4,D7,D12,D15)</f>
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="39" t="s">
         <v>71</v>
       </c>
     </row>

--- a/Doc/Schedules/Gantt/Master_Gantt.xlsx
+++ b/Doc/Schedules/Gantt/Master_Gantt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545"/>
   </bookViews>
   <sheets>
     <sheet name="Managament Summary" sheetId="3" r:id="rId1"/>
@@ -872,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36:Z36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,7 +1666,7 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7"/>
-      <c r="N32" s="6"/>
+      <c r="N32" s="7"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
